--- a/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,7</t>
+          <t>-21,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-10,08</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 0,25</t>
+          <t>-60,39; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 5,13</t>
+          <t>-7,85; 6,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 0,99</t>
+          <t>-37,72; 0,97</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>-21,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-10,27%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 0,25</t>
+          <t>-60,39; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,51</t>
+          <t>-7,99; 7,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 1,01</t>
+          <t>-38,28; 0,99</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,46</t>
+          <t>-3,25; 3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,87</t>
+          <t>-3,26; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,22</t>
+          <t>-2,47; 1,6</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,56</t>
+          <t>-3,29; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,88</t>
+          <t>-3,32; 1,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,25</t>
+          <t>-2,48; 1,64</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 3,24</t>
+          <t>-3,35; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,57</t>
+          <t>-4,59; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,5</t>
+          <t>-2,87; 2,03</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>-0,4%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,41</t>
+          <t>-3,38; 3,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,63</t>
+          <t>-4,76; 3,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,57</t>
+          <t>-2,93; 2,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; 0,75</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 1,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,6%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 0,76</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 1,68</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-21,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,08</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-17.07807172285037</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.0254807033733373</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.093798495179893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-60,39; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 6,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-37,72; 0,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-53.37012568571831</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.381212738364155</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-32.08155375645097</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-21,09%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,27%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.056066223060986</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.022510953294835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-60,39; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 7,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-38,28; 0,99</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1707807172285037</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.0002643356631054773</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.08252259127896021</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5337012568571831</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.07452490766907582</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3265058040305975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 3,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 1,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 1,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.07645732655357387</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0104179792045527</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,65%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.138481448692596</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.6110619088447899</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.851722692486756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 3,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 1,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 1,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.202143472621081</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.170589726230837</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.872804698894814</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.666278947694391</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.629533480230424</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.293774046027743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 3,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 3,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 2,03</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.01168750776160082</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.006175724461528653</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.008673087518286901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.07340982281864467</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.03177023555767992</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03942341184594465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 3,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 3,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 2,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.02756246642435656</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01657359325468574</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01317414199375132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.09579871241367499</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.159927350362722</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.5717057568692341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.771827576198052</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.678588421190877</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.303981423588335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.379109332255412</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.694049469947287</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.873962716128519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.0009736824362045001</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.0119828768431193</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.005863487881761713</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.02807242182545277</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.05810718552058836</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.03359147687894502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 0,75</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 1,63</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 0,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.0348397859587143</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.02844687155940242</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.01937383173120164</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-3,1%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.872724002563232</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.7365678896477212</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.734288698859698</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 0,76</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,68</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.5589277856783</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.027002181177944</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.687280014935356</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.5964227152083847</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.417392010949976</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1922133141965895</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02927327232565118</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.007538292597259014</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01771350773345224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1074108610456471</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.03073828491775389</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.05819320223356177</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.006100842389584017</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.01439529117119769</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.001932212144309666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
